--- a/docentes/González Nuñez Veronica - Estadisticos 20242.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
   <si>
     <t>Mat</t>
   </si>
@@ -76,103 +76,106 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>PELAYO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>MACUIXTLE</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>ALMANZA</t>
-  </si>
-  <si>
-    <t>GILES</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>LOBATO</t>
-  </si>
-  <si>
-    <t>PELAYO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>MACUIXTLE</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>FIGUEROA</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>JHON STEVE</t>
+  </si>
+  <si>
+    <t>KARINA MONSERRATH</t>
+  </si>
+  <si>
+    <t>KEVIN SANTIAGO</t>
+  </si>
+  <si>
     <t>MARIA FERNANDA</t>
   </si>
   <si>
-    <t>EDUARDO</t>
+    <t>REGINA DAYTRI</t>
   </si>
   <si>
     <t>KARINA</t>
   </si>
   <si>
-    <t>VANESA BETHSABE</t>
-  </si>
-  <si>
-    <t>ALEXA YAMILET</t>
-  </si>
-  <si>
-    <t>MARYSOL</t>
-  </si>
-  <si>
-    <t>DIANA LAURA</t>
-  </si>
-  <si>
     <t>IVAN JESUS</t>
   </si>
   <si>
-    <t>CRISTIAN</t>
-  </si>
-  <si>
     <t>JULIO ALBERTO</t>
+  </si>
+  <si>
+    <t>AMALIA PAULINA</t>
   </si>
   <si>
     <t>FERNANDA YAMILET</t>
@@ -731,16 +734,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="H2">
+        <v>6.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -754,16 +760,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>61.54</v>
+      </c>
+      <c r="H3">
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -777,16 +786,19 @@
         <v>14</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -800,16 +812,19 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
@@ -868,16 +883,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H2">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -903,7 +918,7 @@
         <v>61.54</v>
       </c>
       <c r="H3">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -929,7 +944,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -946,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -1000,22 +1015,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920220</v>
+        <v>23330051920301</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1023,16 +1038,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920236</v>
+        <v>23330051920238</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1041,21 +1056,21 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920267</v>
+        <v>23330051920264</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1064,27 +1079,27 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920218</v>
+        <v>23330051920296</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1092,16 +1107,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920231</v>
+        <v>23330051920220</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1110,21 +1125,21 @@
         <v>9</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920241</v>
+        <v>23330051920228</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1133,12 +1148,12 @@
         <v>9</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>23330051920335</v>
+        <v>23330051920267</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1147,7 +1162,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1156,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1170,7 +1185,7 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1179,12 +1194,12 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>23330051920289</v>
+        <v>23330051920290</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -1193,7 +1208,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1202,30 +1217,30 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>23330051920290</v>
+        <v>22330051920240</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1233,13 +1248,13 @@
         <v>23330051920271</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1248,7 +1263,7 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1256,13 +1271,13 @@
         <v>23330051920294</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1271,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1279,13 +1294,13 @@
         <v>23330051920363</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1294,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Nuñez Veronica - Estadisticos 20242.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
   <si>
     <t>Mat</t>
   </si>
@@ -43,9 +43,18 @@
     <t>Promedio</t>
   </si>
   <si>
+    <t>Ingles II</t>
+  </si>
+  <si>
     <t>Ingles IV</t>
   </si>
   <si>
+    <t>2APV</t>
+  </si>
+  <si>
+    <t>4AEV</t>
+  </si>
+  <si>
     <t>4ALCV</t>
   </si>
   <si>
@@ -76,9 +85,21 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>ORTIZ</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>HUERTA</t>
   </si>
   <si>
@@ -88,6 +109,15 @@
     <t>LUCIANO</t>
   </si>
   <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
@@ -100,18 +130,27 @@
     <t>PELAYO</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
     <t>ROMERO</t>
   </si>
   <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
     <t>CORTES</t>
   </si>
   <si>
+    <t>LAGUNA</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
     <t>ALCANTARA</t>
   </si>
   <si>
@@ -121,6 +160,15 @@
     <t>CAMPOS</t>
   </si>
   <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>LIBRADO</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
     <t>MACUIXTLE</t>
   </si>
   <si>
@@ -148,9 +196,21 @@
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>ERWIN ISRAEL</t>
+  </si>
+  <si>
+    <t>DIEGO ARMANDO</t>
+  </si>
+  <si>
     <t>CARLOS</t>
   </si>
   <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>SERGIO JOSUE</t>
+  </si>
+  <si>
     <t>JHON STEVE</t>
   </si>
   <si>
@@ -158,6 +218,15 @@
   </si>
   <si>
     <t>KEVIN SANTIAGO</t>
+  </si>
+  <si>
+    <t>SABDY</t>
+  </si>
+  <si>
+    <t>ARMANDO GABRIEL</t>
+  </si>
+  <si>
+    <t>LUIS FABIAN</t>
   </si>
   <si>
     <t>MARIA FERNANDA</t>
@@ -542,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,102 +651,154 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="H2">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>61.54</v>
+        <v>36.84</v>
       </c>
       <c r="H3">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H4">
-        <v>9.300000000000001</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5">
+        <v>61.54</v>
+      </c>
+      <c r="H5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
         <v>80</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>6.8</v>
       </c>
     </row>
@@ -688,7 +809,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -728,102 +849,154 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>18</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="H2">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
       <c r="G3">
-        <v>61.54</v>
+        <v>52.63</v>
       </c>
       <c r="H3">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H4">
-        <v>9.300000000000001</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
+      <c r="G5">
+        <v>61.54</v>
+      </c>
+      <c r="H5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <v>90</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>6.8</v>
       </c>
     </row>
@@ -834,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -874,102 +1047,154 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>18</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
       <c r="G3">
-        <v>61.54</v>
+        <v>52.63</v>
       </c>
       <c r="H3">
-        <v>6.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H4">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
+      <c r="G5">
+        <v>61.54</v>
+      </c>
+      <c r="H5">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <v>90</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>7.9</v>
       </c>
     </row>
@@ -980,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -992,39 +1217,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920301</v>
+        <v>24330051920393</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1038,68 +1263,68 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920238</v>
+        <v>23330051920211</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920264</v>
+        <v>23330051920301</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920296</v>
+        <v>22330051920389</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1107,114 +1332,114 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920220</v>
+        <v>23330051920332</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920228</v>
+        <v>23330051920238</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>23330051920267</v>
+        <v>23330051920264</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>23330051920309</v>
+        <v>23330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>23330051920290</v>
+        <v>23330051920329</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1222,93 +1447,254 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330051920240</v>
+        <v>23330051920324</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>23330051920271</v>
+        <v>23330051920203</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>23330051920294</v>
+        <v>23330051920220</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
+        <v>23330051920228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>23330051920267</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>23330051920309</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>23330051920290</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>22330051920240</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>23330051920271</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>23330051920294</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
         <v>23330051920363</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
     </row>
